--- a/classfiers/bottleneck/svm/bottleneck-svm-poly-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4171175602557797</v>
+        <v>0.9485924112607099</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4793408755533694</v>
+        <v>0.8372093023255814</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7465116279069768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7336448598130842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E6" t="n">
-        <v>0.704828660436137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.661437908496732</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.4994152046783625</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.4654332449160036</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6162887167930694</v>
+        <v>0.9571603427172584</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/bottleneck-svm-poly-results.xlsx
+++ b/classfiers/bottleneck/svm/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2794117647058824</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4367816091954023</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9485924112607099</v>
+        <v>0.9059113300492611</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03636363636363636</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8372093023255814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9983660130718954</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6153846153846153</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.661437908496732</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4994152046783625</v>
+        <v>0.2022222222222222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4654332449160036</v>
+        <v>0.08444444444444445</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9571603427172584</v>
+        <v>0.9808554686242313</v>
       </c>
     </row>
   </sheetData>
